--- a/bl_kmp_test中文对比.xlsx
+++ b/bl_kmp_test中文对比.xlsx
@@ -35,7 +35,27 @@
     <t>文本长度</t>
   </si>
   <si>
-    <t>BF 性能 (ns/op)</t>
+    <r>
+      <t xml:space="preserve">BF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (ns/op)</t>
+    </r>
   </si>
   <si>
     <t>BF 内存分配(B)</t>
@@ -726,6 +746,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -733,12 +759,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1197,8 +1217,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1528,7 +1549,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1551,7 +1572,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1748,31 +1769,31 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>2002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>31315</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>8192</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>14065</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>8192</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1835,60 +1856,60 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>4000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>35166</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>16384</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>22284</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>16384</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>4000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>32919</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>16384</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>21127</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>16544</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>2</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2009,17 +2030,17 @@
       </c>
     </row>
     <row r="19" ht="408" customHeight="1" spans="1:9">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
